--- a/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -216,22 +220,38 @@
   </si>
   <si>
     <t>是否玩家技能</t>
+  </si>
+  <si>
+    <t>AtkDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与目标最合适的攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必须有目标才能释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -254,23 +274,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -282,14 +287,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -588,6 +598,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -620,15 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -641,7 +651,7 @@
     <col min="10" max="10" width="150.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -705,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -737,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -769,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -801,7 +811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -833,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -865,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -897,7 +907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -929,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -961,7 +971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1281,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1377,7 +1387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -1505,7 +1515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1537,15 +1547,80 @@
         <v>66</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28 F29:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -635,7 +635,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1552,7 +1552,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>Id</t>
   </si>
@@ -223,37 +219,43 @@
   </si>
   <si>
     <t>AtkDis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与目标最合适的攻击距离</t>
   </si>
   <si>
     <t>NeedTar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与目标最合适的攻击距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否必须有目标才能释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultHitTime</t>
+  </si>
+  <si>
+    <t>缺省打击时间（本来应该打到但是物理没碰撞到或者其他原因）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -274,8 +276,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -287,19 +304,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -598,7 +610,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -631,14 +642,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -651,7 +663,7 @@
     <col min="10" max="10" width="150.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -715,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -747,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -875,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -907,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -939,7 +951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -971,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1576,12 +1588,12 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -1611,16 +1623,47 @@
         <v>70</v>
       </c>
     </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30 F31 F2:F29 F32:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -77,12 +81,6 @@
     <t>装备描述字符串索引</t>
   </si>
   <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>NFJobType</t>
-  </si>
-  <si>
     <t>ConsumeProperty</t>
   </si>
   <si>
@@ -158,24 +156,12 @@
     <t>目标类别0敌人1自己2队友</t>
   </si>
   <si>
-    <t>FlashDistance</t>
-  </si>
-  <si>
-    <t>瞬移距离</t>
-  </si>
-  <si>
     <t>NewObject</t>
   </si>
   <si>
     <t>产生新的对象--召唤</t>
   </si>
   <si>
-    <t>BeatBackDistance</t>
-  </si>
-  <si>
-    <t>击退距离</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -188,30 +174,9 @@
     <t>图集</t>
   </si>
   <si>
-    <t>BulletPrefabPath</t>
-  </si>
-  <si>
-    <t>子弹预设</t>
-  </si>
-  <si>
-    <t>BulletSpeed</t>
-  </si>
-  <si>
-    <t>子弹飞行速度(&gt;=100就为瞬间到达)</t>
-  </si>
-  <si>
-    <t>NeedLevel</t>
-  </si>
-  <si>
     <t>升级需要的等级</t>
   </si>
   <si>
-    <t>ReqLevel</t>
-  </si>
-  <si>
-    <t>开放技能需要的等级</t>
-  </si>
-  <si>
     <t>PlayerSkill</t>
   </si>
   <si>
@@ -234,19 +199,37 @@
   </si>
   <si>
     <t>缺省打击时间（本来应该打到但是物理没碰撞到或者其他原因）</t>
+  </si>
+  <si>
+    <r>
+      <t>升级后的新技能I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterUpSkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -254,8 +237,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -276,42 +266,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -610,6 +593,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -642,15 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -663,7 +646,7 @@
     <col min="10" max="10" width="150.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -759,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -791,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -823,12 +806,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -855,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -887,12 +870,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -919,12 +902,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -951,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -983,12 +966,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1015,12 +998,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1047,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1079,12 +1062,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1108,15 +1091,15 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1143,12 +1126,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1175,12 +1158,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1207,12 +1190,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1239,12 +1222,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1271,7 +1254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1303,41 +1286,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -1363,77 +1346,77 @@
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -1460,15 +1443,15 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1492,178 +1475,19 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30 F31 F2:F29 F32:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>Id</t>
   </si>
@@ -36,7 +31,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -174,34 +169,22 @@
     <t>图集</t>
   </si>
   <si>
+    <t>UpLevel</t>
+  </si>
+  <si>
     <t>升级需要的等级</t>
   </si>
   <si>
-    <t>PlayerSkill</t>
-  </si>
-  <si>
-    <t>是否玩家技能</t>
-  </si>
-  <si>
-    <t>AtkDis</t>
-  </si>
-  <si>
-    <t>与目标最合适的攻击距离</t>
-  </si>
-  <si>
-    <t>NeedTar</t>
-  </si>
-  <si>
-    <t>是否必须有目标才能释放</t>
-  </si>
-  <si>
-    <t>DefaultHitTime</t>
-  </si>
-  <si>
-    <t>缺省打击时间（本来应该打到但是物理没碰撞到或者其他原因）</t>
+    <t>AfterUpSkillID</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>升级后的新技能I</t>
     </r>
     <r>
@@ -209,27 +192,47 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AfterUpSkillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill</t>
+  </si>
+  <si>
+    <t>是否玩家技能</t>
+  </si>
+  <si>
+    <t>AtkDis</t>
+  </si>
+  <si>
+    <t>与目标最合适的攻击距离</t>
+  </si>
+  <si>
+    <t>NeedTar</t>
+  </si>
+  <si>
+    <t>是否必须有目标才能释放</t>
+  </si>
+  <si>
+    <t>DefaultHitTime</t>
+  </si>
+  <si>
+    <t>缺省打击时间（本来应该打到但是物理没碰撞到或者其他原因）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -237,27 +240,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -265,9 +593,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -278,23 +848,62 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -344,71 +953,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +1235,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -646,7 +1256,7 @@
     <col min="10" max="10" width="150.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -695,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -710,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -742,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -759,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -774,7 +1384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -791,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -806,7 +1416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -823,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -838,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -855,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -870,7 +1480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -887,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -902,7 +1512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -919,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -934,7 +1544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -951,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -966,7 +1576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -983,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -998,7 +1608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1030,7 +1640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1047,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1062,7 +1672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1094,7 +1704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1126,7 +1736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1158,7 +1768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1175,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1190,7 +1800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1222,7 +1832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1239,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1254,7 +1864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1271,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1286,9 +1896,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -1303,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1315,12 +1925,12 @@
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -1335,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1347,12 +1957,12 @@
         <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -1367,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1379,12 +1989,12 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>37</v>
@@ -1399,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1411,12 +2021,12 @@
         <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -1431,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1443,12 +2053,12 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
@@ -1463,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1475,19 +2085,18 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26 F27:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27765" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>升级需要的等级</t>
   </si>
   <si>
-    <t>AfterUpSkillID</t>
+    <t>AfterUpID</t>
   </si>
   <si>
     <r>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -241,14 +241,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,10 +277,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,8 +299,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,17 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,23 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,50 +383,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,187 +400,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,11 +594,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,7 +628,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,21 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,153 +682,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2090,10 +2090,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26 F27:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
